--- a/bots/crawl_ch/output/bread_coop_2023-01-20.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-20.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
         <v>4.5</v>
@@ -1078,7 +1078,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" t="n">
         <v>4.5</v>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E26" t="n">
         <v>4.5</v>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" t="n">
         <v>4.5</v>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3139,7 +3139,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E39" t="n">
         <v>4.5</v>
@@ -3208,7 +3208,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3638,7 +3638,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E46" t="n">
         <v>4.5</v>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E50" t="n">
         <v>4.5</v>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4072,7 +4072,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E60" t="n">
         <v>4.5</v>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E63" t="n">
         <v>4.5</v>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5873,7 +5873,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -5894,7 +5894,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E77" t="n">
         <v>4.5</v>
@@ -5942,7 +5942,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -6153,7 +6153,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6514,7 +6514,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6725,7 +6725,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E89" t="n">
         <v>4.5</v>
@@ -6794,7 +6794,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6936,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="n">
         <v>3.5</v>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7520,7 +7520,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7589,7 +7589,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7610,10 +7610,10 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E101" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7727,7 +7727,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7800,7 +7800,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7869,7 +7869,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -7938,7 +7938,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8149,7 +8149,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8312,7 +8312,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E111" t="n">
         <v>4.5</v>
@@ -8360,7 +8360,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8433,7 +8433,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8506,7 +8506,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8575,7 +8575,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8644,7 +8644,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8713,7 +8713,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8786,7 +8786,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8859,7 +8859,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -8928,7 +8928,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9001,45 +9001,45 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>4944608</t>
+          <t>5909120</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Schär Meisterbäckers Classic glutenfrei</t>
+          <t>Rob&amp;amp;Lissy Mega Buns Rustico</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-meisterbaeckers-classic-glutenfrei/p/4944608</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/rob-lissy-mega-buns-rustico/p/5909120</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E121" t="n">
         <v>4.5</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -9059,60 +9059,60 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Schär Meisterbäckers Classic glutenfrei 4.95 Schweizer Franken</t>
+          <t>Rob&amp;amp;Lissy Mega Buns Rustico 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>5909120</t>
+          <t>4944608</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Rob&amp;amp;Lissy Mega Buns Rustico</t>
+          <t>Schär Meisterbäckers Classic glutenfrei</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/toastbrote-buns/rob-lissy-mega-buns-rustico/p/5909120</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-meisterbaeckers-classic-glutenfrei/p/4944608</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E122" t="n">
         <v>4.5</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9122,7 +9122,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -9132,22 +9132,22 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'toastbrote-buns']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Rob&amp;amp;Lissy Mega Buns Rustico 2.95 Schweizer Franken</t>
+          <t>Schär Meisterbäckers Classic glutenfrei 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9241,7 +9241,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E124" t="n">
         <v>3.5</v>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9362,7 +9362,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9435,7 +9435,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9504,7 +9504,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9573,7 +9573,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9642,7 +9642,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="n">
         <v>4.5</v>
@@ -9788,7 +9788,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9857,7 +9857,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9930,7 +9930,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -9999,7 +9999,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10020,7 +10020,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -10072,7 +10072,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10145,7 +10145,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10218,7 +10218,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10287,7 +10287,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10356,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10425,7 +10425,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10494,7 +10494,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10567,7 +10567,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10636,7 +10636,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10705,7 +10705,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10778,7 +10778,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10847,7 +10847,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10916,7 +10916,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -10989,7 +10989,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11058,7 +11058,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11131,7 +11131,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11200,7 +11200,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11273,7 +11273,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11342,7 +11342,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11484,7 +11484,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11505,7 +11505,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11553,7 +11553,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11695,7 +11695,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11837,7 +11837,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11906,7 +11906,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12048,7 +12048,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12194,7 +12194,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12263,7 +12263,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12332,7 +12332,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12401,7 +12401,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12422,7 +12422,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E169" t="n">
         <v>4.5</v>
@@ -12474,7 +12474,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12495,7 +12495,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E170" t="n">
         <v>4.5</v>
@@ -12547,7 +12547,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12620,7 +12620,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12689,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12762,7 +12762,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12831,7 +12831,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12904,7 +12904,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -12977,7 +12977,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13046,7 +13046,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13115,7 +13115,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13184,7 +13184,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13205,10 +13205,10 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E180" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13330,7 +13330,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13399,7 +13399,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13472,7 +13472,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13614,7 +13614,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13687,7 +13687,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13756,7 +13756,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13825,7 +13825,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13898,7 +13898,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -13967,7 +13967,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14036,7 +14036,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14109,7 +14109,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14178,7 +14178,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14251,7 +14251,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14320,7 +14320,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14389,7 +14389,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14462,7 +14462,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14531,7 +14531,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14823,7 +14823,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14896,7 +14896,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -14965,7 +14965,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15034,7 +15034,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15253,7 +15253,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15322,7 +15322,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15391,7 +15391,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15460,7 +15460,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15602,7 +15602,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15675,7 +15675,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15748,7 +15748,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15817,7 +15817,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15890,7 +15890,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -15963,7 +15963,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16032,7 +16032,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16101,7 +16101,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16170,7 +16170,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16243,7 +16243,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16312,7 +16312,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16381,7 +16381,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16454,7 +16454,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16523,7 +16523,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16596,7 +16596,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16665,7 +16665,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16734,7 +16734,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16876,7 +16876,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -16945,7 +16945,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17014,7 +17014,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17083,7 +17083,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17152,7 +17152,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17221,7 +17221,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17294,7 +17294,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17363,7 +17363,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17505,7 +17505,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17578,7 +17578,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17647,7 +17647,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17718,7 +17718,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17791,7 +17791,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17864,7 +17864,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -17937,7 +17937,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18006,7 +18006,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18075,7 +18075,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18144,7 +18144,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18211,7 +18211,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18280,7 +18280,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18349,7 +18349,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18422,7 +18422,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18491,7 +18491,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18560,7 +18560,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18629,7 +18629,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18698,7 +18698,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18767,7 +18767,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18836,7 +18836,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18905,7 +18905,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -18978,7 +18978,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19051,7 +19051,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19124,7 +19124,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19193,7 +19193,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19266,7 +19266,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19339,7 +19339,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19410,7 +19410,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19479,7 +19479,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19552,7 +19552,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19573,10 +19573,10 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E270" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -19625,7 +19625,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19698,7 +19698,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19767,7 +19767,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19840,7 +19840,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19913,7 +19913,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -19982,7 +19982,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20051,7 +20051,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20120,7 +20120,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20193,7 +20193,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20266,7 +20266,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20335,7 +20335,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20404,7 +20404,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20473,7 +20473,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20542,7 +20542,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20611,7 +20611,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20684,7 +20684,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20757,7 +20757,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20824,7 +20824,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20893,7 +20893,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -20966,7 +20966,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21039,7 +21039,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21108,7 +21108,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21181,7 +21181,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21254,7 +21254,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21321,7 +21321,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21394,7 +21394,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21467,7 +21467,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21536,7 +21536,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21605,7 +21605,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21674,7 +21674,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21743,7 +21743,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21812,7 +21812,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21881,7 +21881,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -21950,7 +21950,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22019,7 +22019,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22165,7 +22165,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22234,7 +22234,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22303,7 +22303,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22372,7 +22372,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22445,7 +22445,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22514,7 +22514,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22583,7 +22583,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22652,7 +22652,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22721,7 +22721,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22790,7 +22790,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22859,7 +22859,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -22928,7 +22928,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23001,7 +23001,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23074,7 +23074,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23143,7 +23143,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23216,7 +23216,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23289,7 +23289,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23358,7 +23358,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23427,7 +23427,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23500,7 +23500,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23573,7 +23573,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23642,7 +23642,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23663,7 +23663,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E328" t="n">
         <v>3.5</v>
@@ -23711,7 +23711,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23780,7 +23780,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23849,7 +23849,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23918,7 +23918,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -23987,7 +23987,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24056,7 +24056,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24125,7 +24125,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24192,7 +24192,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24261,7 +24261,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24330,7 +24330,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24399,7 +24399,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24468,7 +24468,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24537,7 +24537,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24606,7 +24606,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24669,13 +24669,13 @@
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers 4.95 Schweizer Franken</t>
+          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24744,7 +24744,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24813,7 +24813,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24880,7 +24880,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -24953,7 +24953,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25022,7 +25022,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25093,7 +25093,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25160,7 +25160,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25233,7 +25233,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25302,7 +25302,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25371,7 +25371,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25440,7 +25440,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25509,7 +25509,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25578,7 +25578,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25651,7 +25651,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25718,7 +25718,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25787,7 +25787,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25856,7 +25856,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25925,7 +25925,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -25998,7 +25998,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26071,7 +26071,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26144,7 +26144,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26213,7 +26213,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26282,7 +26282,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26355,7 +26355,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26422,7 +26422,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26495,7 +26495,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26566,7 +26566,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26639,7 +26639,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26712,7 +26712,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26785,7 +26785,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26854,7 +26854,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26927,7 +26927,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -26996,7 +26996,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27069,7 +27069,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27142,7 +27142,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27211,7 +27211,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27284,7 +27284,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27355,7 +27355,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27428,7 +27428,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27497,7 +27497,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27564,7 +27564,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27633,7 +27633,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27706,7 +27706,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27773,7 +27773,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27842,7 +27842,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27909,7 +27909,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -27978,7 +27978,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -28045,7 +28045,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -28114,7 +28114,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -28183,7 +28183,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -28250,7 +28250,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
@@ -28319,7 +28319,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-20 06:49:33</t>
+          <t>2023-01-20 12:56:40</t>
         </is>
       </c>
     </row>
